--- a/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4.1_TC1.xlsx
+++ b/test-code-generator/Evaluation/QuantitativeEvaluation/7/UC3.4.1_TC1.xlsx
@@ -616,11 +616,11 @@
         </is>
       </c>
       <c r="B12" s="3" t="n">
-        <v>0.3066354842744071</v>
+        <v>0.2985709681453748</v>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>{'codebleu': 0.30663548427440707, 'ngram_match_score': 0.13235954778803394, 'weighted_ngram_match_score': 0.14236001813238455, 'syntax_match_score': 0.5324675324675324, 'dataflow_match_score': 0.41935483870967744}</t>
+          <t>{'codebleu': 0.2985709681453748, 'ngram_match_score': 0.13235954778803394, 'weighted_ngram_match_score': 0.14236001813238455, 'syntax_match_score': 0.5324675324675324, 'dataflow_match_score': 0.3870967741935484}</t>
         </is>
       </c>
       <c r="D12" s="7" t="inlineStr">
